--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Vtn</t>
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H2">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I2">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J2">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N2">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q2">
-        <v>8.262818114030001</v>
+        <v>66.82518826742577</v>
       </c>
       <c r="R2">
-        <v>74.36536302627</v>
+        <v>601.4266944068321</v>
       </c>
       <c r="S2">
-        <v>0.01699470667078115</v>
+        <v>0.1437840026361547</v>
       </c>
       <c r="T2">
-        <v>0.01699470667078115</v>
+        <v>0.1437840026361547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H3">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I3">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J3">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q3">
-        <v>9.74799432344</v>
+        <v>22.41508078123378</v>
       </c>
       <c r="R3">
-        <v>87.73194891096</v>
+        <v>201.735727031104</v>
       </c>
       <c r="S3">
-        <v>0.02004937079203158</v>
+        <v>0.04822926979630475</v>
       </c>
       <c r="T3">
-        <v>0.02004937079203158</v>
+        <v>0.04822926979630477</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H4">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I4">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J4">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N4">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q4">
-        <v>1.24768102395</v>
+        <v>3.842748647241778</v>
       </c>
       <c r="R4">
-        <v>11.22912921555</v>
+        <v>34.584737825176</v>
       </c>
       <c r="S4">
-        <v>0.002566191428651498</v>
+        <v>0.008268226337260055</v>
       </c>
       <c r="T4">
-        <v>0.002566191428651498</v>
+        <v>0.008268226337260058</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H5">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I5">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J5">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N5">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O5">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P5">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q5">
-        <v>1.03500900472</v>
+        <v>1.212905010128</v>
       </c>
       <c r="R5">
-        <v>9.315081042480001</v>
+        <v>10.916145091152</v>
       </c>
       <c r="S5">
-        <v>0.002128774250393681</v>
+        <v>0.002609739556224487</v>
       </c>
       <c r="T5">
-        <v>0.002128774250393681</v>
+        <v>0.002609739556224487</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H6">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I6">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J6">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N6">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q6">
-        <v>44.59318251762</v>
+        <v>73.49381688630488</v>
       </c>
       <c r="R6">
-        <v>401.33864265858</v>
+        <v>661.4443519767441</v>
       </c>
       <c r="S6">
-        <v>0.09171786743275352</v>
+        <v>0.1581325161200118</v>
       </c>
       <c r="T6">
-        <v>0.09171786743275352</v>
+        <v>0.1581325161200118</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H7">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I7">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J7">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N7">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q7">
-        <v>1.85834644661</v>
+        <v>1.742399564372445</v>
       </c>
       <c r="R7">
-        <v>16.72511801949</v>
+        <v>15.681596079352</v>
       </c>
       <c r="S7">
-        <v>0.003822189030059866</v>
+        <v>0.003749023235884901</v>
       </c>
       <c r="T7">
-        <v>0.003822189030059866</v>
+        <v>0.003749023235884901</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>8.875596</v>
       </c>
       <c r="I8">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J8">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N8">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q8">
-        <v>6.190113821521334</v>
+        <v>21.77136165052533</v>
       </c>
       <c r="R8">
-        <v>55.71102439369201</v>
+        <v>195.942254854728</v>
       </c>
       <c r="S8">
-        <v>0.01273163310673369</v>
+        <v>0.04684421551383379</v>
       </c>
       <c r="T8">
-        <v>0.01273163310673369</v>
+        <v>0.04684421551383381</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>8.875596</v>
       </c>
       <c r="I9">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J9">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q9">
         <v>7.302737826357333</v>
@@ -1013,10 +1013,10 @@
         <v>65.724640437216</v>
       </c>
       <c r="S9">
-        <v>0.01502004346941022</v>
+        <v>0.01571289063450262</v>
       </c>
       <c r="T9">
-        <v>0.01502004346941022</v>
+        <v>0.01571289063450263</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>8.875596</v>
       </c>
       <c r="I10">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J10">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N10">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q10">
-        <v>0.93470380742</v>
+        <v>1.251951138489333</v>
       </c>
       <c r="R10">
-        <v>8.41233426678</v>
+        <v>11.267560246404</v>
       </c>
       <c r="S10">
-        <v>0.00192246964799975</v>
+        <v>0.002693752916587502</v>
       </c>
       <c r="T10">
-        <v>0.00192246964799975</v>
+        <v>0.002693752916587503</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>8.875596</v>
       </c>
       <c r="I11">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J11">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N11">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O11">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P11">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q11">
-        <v>0.7753799559786667</v>
+        <v>0.3951592851119999</v>
       </c>
       <c r="R11">
-        <v>6.978419603808001</v>
+        <v>3.556433566008</v>
       </c>
       <c r="S11">
-        <v>0.001594777317908755</v>
+        <v>0.0008502420294705066</v>
       </c>
       <c r="T11">
-        <v>0.001594777317908755</v>
+        <v>0.0008502420294705069</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>8.875596</v>
       </c>
       <c r="I12">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J12">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N12">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q12">
-        <v>33.407110218152</v>
+        <v>23.94397244503066</v>
       </c>
       <c r="R12">
-        <v>300.663991963368</v>
+        <v>215.495752005276</v>
       </c>
       <c r="S12">
-        <v>0.06871070269741721</v>
+        <v>0.05151890007969482</v>
       </c>
       <c r="T12">
-        <v>0.06871070269741721</v>
+        <v>0.05151890007969484</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>8.875596</v>
       </c>
       <c r="I13">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J13">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N13">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q13">
-        <v>1.392185555289333</v>
+        <v>0.5676663551453334</v>
       </c>
       <c r="R13">
-        <v>12.529669997604</v>
+        <v>5.108997196308</v>
       </c>
       <c r="S13">
-        <v>0.002863403843207832</v>
+        <v>0.001221415798755925</v>
       </c>
       <c r="T13">
-        <v>0.002863403843207832</v>
+        <v>0.001221415798755925</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H14">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I14">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J14">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N14">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q14">
-        <v>0.1275531149477778</v>
+        <v>0.7446654816044445</v>
       </c>
       <c r="R14">
-        <v>1.14797803453</v>
+        <v>6.70198933444</v>
       </c>
       <c r="S14">
-        <v>0.0002623472698498811</v>
+        <v>0.001602254873440574</v>
       </c>
       <c r="T14">
-        <v>0.0002623472698498811</v>
+        <v>0.001602254873440574</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H15">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I15">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J15">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q15">
-        <v>0.1504797786044444</v>
+        <v>0.2497821159644445</v>
       </c>
       <c r="R15">
-        <v>1.35431800744</v>
+        <v>2.24803904368</v>
       </c>
       <c r="S15">
-        <v>0.0003095021168291612</v>
+        <v>0.000537442143470963</v>
       </c>
       <c r="T15">
-        <v>0.0003095021168291612</v>
+        <v>0.0005374421434709634</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H16">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I16">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J16">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N16">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q16">
-        <v>0.01926045071666667</v>
+        <v>0.04282161182444445</v>
       </c>
       <c r="R16">
-        <v>0.17334405645</v>
+        <v>0.38539450642</v>
       </c>
       <c r="S16">
-        <v>3.961429451303037E-05</v>
+        <v>9.213685598326398E-05</v>
       </c>
       <c r="T16">
-        <v>3.961429451303037E-05</v>
+        <v>9.213685598326402E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H17">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I17">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J17">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N17">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O17">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P17">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q17">
-        <v>0.01597743296888889</v>
+        <v>0.01351598876</v>
       </c>
       <c r="R17">
-        <v>0.14379689672</v>
+        <v>0.12164389884</v>
       </c>
       <c r="S17">
-        <v>3.286188597051198E-05</v>
+        <v>2.908159354105983E-05</v>
       </c>
       <c r="T17">
-        <v>3.286188597051198E-05</v>
+        <v>2.908159354105984E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H18">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I18">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J18">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N18">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q18">
-        <v>0.6883849138466667</v>
+        <v>0.8189772444422223</v>
       </c>
       <c r="R18">
-        <v>6.195464224619999</v>
+        <v>7.370795199980001</v>
       </c>
       <c r="S18">
-        <v>0.001415848627667442</v>
+        <v>0.001762147317903356</v>
       </c>
       <c r="T18">
-        <v>0.001415848627667442</v>
+        <v>0.001762147317903357</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H19">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I19">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J19">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N19">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q19">
-        <v>0.02868729223444445</v>
+        <v>0.01941640337111111</v>
       </c>
       <c r="R19">
-        <v>0.25818563011</v>
+        <v>0.17474763034</v>
       </c>
       <c r="S19">
-        <v>5.900312822758949E-05</v>
+        <v>4.177718411094012E-05</v>
       </c>
       <c r="T19">
-        <v>5.90031282275895E-05</v>
+        <v>4.177718411094013E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H20">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I20">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J20">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N20">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q20">
-        <v>45.60943561349711</v>
+        <v>92.41993546438867</v>
       </c>
       <c r="R20">
-        <v>410.484920521474</v>
+        <v>831.7794191794981</v>
       </c>
       <c r="S20">
-        <v>0.09380806511462905</v>
+        <v>0.1988547819912757</v>
       </c>
       <c r="T20">
-        <v>0.09380806511462907</v>
+        <v>0.1988547819912757</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H21">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I21">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J21">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q21">
-        <v>53.80737096230578</v>
+        <v>31.00029155085067</v>
       </c>
       <c r="R21">
-        <v>484.266338660752</v>
+        <v>279.0026239576561</v>
       </c>
       <c r="S21">
-        <v>0.1106693229368807</v>
+        <v>0.06670158539967523</v>
       </c>
       <c r="T21">
-        <v>0.1106693229368807</v>
+        <v>0.06670158539967525</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H22">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I22">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J22">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N22">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q22">
-        <v>6.886999876156668</v>
+        <v>5.314561637487667</v>
       </c>
       <c r="R22">
-        <v>61.98299888541</v>
+        <v>47.831054737389</v>
       </c>
       <c r="S22">
-        <v>0.01416496661571845</v>
+        <v>0.01143504364606513</v>
       </c>
       <c r="T22">
-        <v>0.01416496661571845</v>
+        <v>0.01143504364606513</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H23">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I23">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J23">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N23">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O23">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P23">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q23">
-        <v>5.713084314419556</v>
+        <v>1.677460335942</v>
       </c>
       <c r="R23">
-        <v>51.417758829776</v>
+        <v>15.097143023478</v>
       </c>
       <c r="S23">
-        <v>0.01175049368981531</v>
+        <v>0.003609297147056441</v>
       </c>
       <c r="T23">
-        <v>0.01175049368981531</v>
+        <v>0.003609297147056441</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,14 +1892,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H24">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I24">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J24">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N24">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q24">
-        <v>246.1472416275107</v>
+        <v>101.6427187078323</v>
       </c>
       <c r="R24">
-        <v>2215.325174647596</v>
+        <v>914.7844683704911</v>
       </c>
       <c r="S24">
-        <v>0.5062679719620713</v>
+        <v>0.2186989264608902</v>
       </c>
       <c r="T24">
-        <v>0.5062679719620713</v>
+        <v>0.2186989264608902</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,10 +1954,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H25">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I25">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J25">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,400 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N25">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q25">
-        <v>10.25777542655978</v>
+        <v>2.409756851683667</v>
       </c>
       <c r="R25">
-        <v>92.319978839038</v>
+        <v>21.687811665153</v>
       </c>
       <c r="S25">
-        <v>0.02109787267047876</v>
+        <v>0.005184938411671808</v>
       </c>
       <c r="T25">
-        <v>0.02109787267047876</v>
+        <v>0.005184938411671808</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.585256</v>
+      </c>
+      <c r="I26">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J26">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7.358839333333333</v>
+      </c>
+      <c r="N26">
+        <v>22.076518</v>
+      </c>
+      <c r="O26">
+        <v>0.3941741583621265</v>
+      </c>
+      <c r="P26">
+        <v>0.3941741583621266</v>
+      </c>
+      <c r="Q26">
+        <v>1.435601624289778</v>
+      </c>
+      <c r="R26">
+        <v>12.920414618608</v>
+      </c>
+      <c r="S26">
+        <v>0.003088903347421887</v>
+      </c>
+      <c r="T26">
+        <v>0.003088903347421888</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.585256</v>
+      </c>
+      <c r="I27">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J27">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.468365333333333</v>
+      </c>
+      <c r="N27">
+        <v>7.405096</v>
+      </c>
+      <c r="O27">
+        <v>0.1322172945656896</v>
+      </c>
+      <c r="P27">
+        <v>0.1322172945656897</v>
+      </c>
+      <c r="Q27">
+        <v>0.4815418738417778</v>
+      </c>
+      <c r="R27">
+        <v>4.333876864576</v>
+      </c>
+      <c r="S27">
+        <v>0.001036106591736089</v>
+      </c>
+      <c r="T27">
+        <v>0.00103610659173609</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.585256</v>
+      </c>
+      <c r="I28">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J28">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.4231663333333333</v>
+      </c>
+      <c r="N28">
+        <v>1.269499</v>
+      </c>
+      <c r="O28">
+        <v>0.02266678558034203</v>
+      </c>
+      <c r="P28">
+        <v>0.02266678558034203</v>
+      </c>
+      <c r="Q28">
+        <v>0.08255354519377778</v>
+      </c>
+      <c r="R28">
+        <v>0.742981906744</v>
+      </c>
+      <c r="S28">
+        <v>0.0001776258244460806</v>
+      </c>
+      <c r="T28">
+        <v>0.0001776258244460807</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.585256</v>
+      </c>
+      <c r="I29">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J29">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.133566</v>
+      </c>
+      <c r="N29">
+        <v>0.400698</v>
+      </c>
+      <c r="O29">
+        <v>0.0071544252090564</v>
+      </c>
+      <c r="P29">
+        <v>0.007154425209056401</v>
+      </c>
+      <c r="Q29">
+        <v>0.026056767632</v>
+      </c>
+      <c r="R29">
+        <v>0.234510908688</v>
+      </c>
+      <c r="S29">
+        <v>5.606488276390576E-05</v>
+      </c>
+      <c r="T29">
+        <v>5.606488276390577E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.585256</v>
+      </c>
+      <c r="I30">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J30">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>8.093193666666666</v>
+      </c>
+      <c r="N30">
+        <v>24.279581</v>
+      </c>
+      <c r="O30">
+        <v>0.4335096416047168</v>
+      </c>
+      <c r="P30">
+        <v>0.4335096416047168</v>
+      </c>
+      <c r="Q30">
+        <v>1.578863384192889</v>
+      </c>
+      <c r="R30">
+        <v>14.209770457736</v>
+      </c>
+      <c r="S30">
+        <v>0.003397151626216636</v>
+      </c>
+      <c r="T30">
+        <v>0.003397151626216638</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.585256</v>
+      </c>
+      <c r="I31">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J31">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.1918743333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.575623</v>
+      </c>
+      <c r="O31">
+        <v>0.01027769467806845</v>
+      </c>
+      <c r="P31">
+        <v>0.01027769467806845</v>
+      </c>
+      <c r="Q31">
+        <v>0.03743186827644444</v>
+      </c>
+      <c r="R31">
+        <v>0.336886814488</v>
+      </c>
+      <c r="S31">
+        <v>8.054004764487901E-05</v>
+      </c>
+      <c r="T31">
+        <v>8.054004764487903E-05</v>
       </c>
     </row>
   </sheetData>
